--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B925DF-511B-4B22-83FC-5C1BC2AB5B11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{936B3216-CCEB-4A62-A4D4-0E5DEE9C301E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="132">
   <si>
     <t xml:space="preserve">Stationery </t>
   </si>
@@ -105,9 +104,6 @@
     <t>2. Normal support time &amp; Development time</t>
   </si>
   <si>
-    <t>1. Time inventory &amp; management equipment</t>
-  </si>
-  <si>
     <t>Type Equipment</t>
   </si>
   <si>
@@ -150,9 +146,6 @@
     <t xml:space="preserve">3. Total fuction Develop FOSS </t>
   </si>
   <si>
-    <t>Reduce papers:   70-&gt; 10 gram/year</t>
-  </si>
-  <si>
     <t>OLD devices</t>
   </si>
   <si>
@@ -168,9 +161,6 @@
     <t>Total time working (h)</t>
   </si>
   <si>
-    <t>Develop time modify 1 function</t>
-  </si>
-  <si>
     <t>Goods Receive</t>
   </si>
   <si>
@@ -370,12 +360,132 @@
   </si>
   <si>
     <t>List functions to Upgrade on OLD device</t>
+  </si>
+  <si>
+    <t>Transfer, inventory, maintain, scrap</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Inventory Stationery &amp; Handy Termial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduce papers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   480 sheet ~1 gram/year </t>
+    </r>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 50*12 = 600 sheet /1 year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 10*12 = 120 sheet/1 year</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Time inventory &amp; management equipment IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phong </t>
+  </si>
+  <si>
+    <t>Tuan Anh</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Kitting</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Total (hour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other function </t>
+  </si>
+  <si>
+    <t>After the upgrade FOSS system from WinCE to Android OS We reduce normal support time to 0.85 hour.</t>
+  </si>
+  <si>
+    <t>Then we spend these 0.8 hours of support user for development software.</t>
+  </si>
+  <si>
+    <t>Statistics on support activities</t>
+  </si>
+  <si>
+    <t>Compare time modify 1 function that I did</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,6 +657,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,11 +980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E523DEC4-3A71-416F-AE68-42188374E608}">
-  <dimension ref="A1:H119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,15 +996,16 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -905,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E6" s="3">
         <f>SUM(E4:E5)</f>
         <v>57.1</v>
@@ -970,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1162,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E11" s="3">
         <f>SUM(E9:E10)</f>
         <v>19.033333333333331</v>
@@ -1052,11 +1172,20 @@
         <v>228.4</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3">
@@ -1067,34 +1196,71 @@
         <f>F6-F11</f>
         <v>456.80000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="20">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="20">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="20">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="20">
+        <f>SUM(I12:I15)</f>
+        <v>50</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="11">
         <v>55</v>
@@ -1105,9 +1271,9 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="11">
         <v>44</v>
@@ -1117,10 +1283,13 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11">
         <v>608</v>
@@ -1130,10 +1299,13 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="11">
         <v>435</v>
@@ -1144,96 +1316,178 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="20"/>
+      <c r="F25" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
+        <f>8.5*C26</f>
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="C26" s="15">
         <v>0.45</v>
       </c>
-      <c r="C26" s="16">
-        <f>8.5*B26</f>
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="20">
+        <f>SUM(G26:J26)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
+        <f>8.5*C27</f>
+        <v>4.6750000000000007</v>
+      </c>
+      <c r="C27" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C27" s="16">
-        <f>8.5*B27</f>
-        <v>4.6750000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" ref="F27:F28" si="1">SUM(G27:J27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="1"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <f>SUM(F26:F28)</f>
+        <v>3.83</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
+        <f>8.5*C30</f>
+        <v>2.9749999999999996</v>
+      </c>
+      <c r="C30" s="15">
         <v>0.35</v>
       </c>
-      <c r="C30" s="16">
-        <f>8.5*B30</f>
-        <v>2.9749999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="29">
+        <f>F29/8.5*100</f>
+        <v>45.058823529411768</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="16">
+        <f>8.5*C31</f>
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="C31" s="15">
         <v>0.65</v>
-      </c>
-      <c r="C31" s="16">
-        <f>8.5*B31</f>
-        <v>5.5250000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1241,41 +1495,47 @@
         <v>21</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <f>B26-B30</f>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="C35" s="18">
+        <f>C26-C30</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="C35" s="19">
-        <f>C26-C30</f>
-        <v>0.85000000000000053</v>
+      <c r="E35" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <f>B31-B27</f>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="C36" s="18">
+        <f>C31-C27</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="C36" s="19">
-        <f>C31-C27</f>
-        <v>0.84999999999999964</v>
+      <c r="E36" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,12 +1544,12 @@
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>5</v>
@@ -1307,7 +1567,7 @@
         <v>4.5</v>
       </c>
       <c r="C42" s="1">
-        <f>C41-C36*5</f>
+        <f>C41-B36*5</f>
         <v>38.25</v>
       </c>
     </row>
@@ -1323,33 +1583,33 @@
     </row>
     <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="G48" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" s="12">
         <v>12</v>
@@ -1372,7 +1632,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="12">
         <v>9</v>
@@ -1395,18 +1655,18 @@
     </row>
     <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1414,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1425,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1436,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1447,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1469,10 +1729,10 @@
         <v>6</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1480,10 +1740,10 @@
         <v>7</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1491,10 +1751,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1502,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1513,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1524,10 +1784,10 @@
         <v>11</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1535,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1546,10 +1806,10 @@
         <v>13</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1557,10 +1817,10 @@
         <v>14</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1568,10 +1828,10 @@
         <v>15</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1579,10 +1839,10 @@
         <v>16</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,10 +1850,10 @@
         <v>17</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1601,10 +1861,10 @@
         <v>18</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1612,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1623,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1634,10 +1894,10 @@
         <v>21</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1645,10 +1905,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1656,10 +1916,10 @@
         <v>23</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1667,10 +1927,10 @@
         <v>24</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1678,10 +1938,10 @@
         <v>25</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1689,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1700,10 +1960,10 @@
         <v>27</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1711,10 +1971,10 @@
         <v>28</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,10 +1982,10 @@
         <v>29</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1733,10 +1993,10 @@
         <v>30</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,10 +2004,10 @@
         <v>31</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +2015,10 @@
         <v>32</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1766,10 +2026,10 @@
         <v>33</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1777,10 +2037,10 @@
         <v>34</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1788,10 +2048,10 @@
         <v>35</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1799,10 +2059,10 @@
         <v>36</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1810,10 +2070,10 @@
         <v>37</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1821,10 +2081,10 @@
         <v>38</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1832,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +2103,10 @@
         <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1854,10 +2114,10 @@
         <v>41</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1865,10 +2125,10 @@
         <v>42</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1876,10 +2136,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1887,10 +2147,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1898,10 +2158,10 @@
         <v>45</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1909,10 +2169,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1920,10 +2180,10 @@
         <v>47</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1931,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1942,10 +2202,10 @@
         <v>49</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1964,10 +2224,10 @@
         <v>51</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1975,10 +2235,10 @@
         <v>52</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1986,10 +2246,10 @@
         <v>53</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1997,10 +2257,10 @@
         <v>54</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2008,10 +2268,10 @@
         <v>55</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2019,10 +2279,10 @@
         <v>56</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2030,10 +2290,10 @@
         <v>57</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2041,10 +2301,10 @@
         <v>58</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2052,10 +2312,10 @@
         <v>59</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2063,10 +2323,10 @@
         <v>60</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2074,10 +2334,10 @@
         <v>61</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2085,10 +2345,10 @@
         <v>62</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2096,10 +2356,10 @@
         <v>63</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2107,10 +2367,10 @@
         <v>64</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2118,10 +2378,10 @@
         <v>65</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F736999-0BC5-4A03-B88C-8F2E5766F762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,8 +489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +557,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -612,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -663,14 +669,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,12 +685,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,11 +1015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1221,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="20" t="s">
         <v>124</v>
       </c>
@@ -1241,7 +1251,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="20">
@@ -1257,7 +1267,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="20">
@@ -1273,14 +1283,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="32" t="s">
         <v>113</v>
       </c>
       <c r="B20" s="17">
         <f>SUM(B16:B19)</f>
         <v>50</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>10</v>
       </c>
       <c r="D20" s="8"/>
@@ -1406,7 +1416,7 @@
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1513,7 +1523,7 @@
         <f>C39-C43</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1529,18 +1539,18 @@
         <f>C44-C40</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="27" t="s">
@@ -1563,7 +1573,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B53" s="1">
@@ -1588,7 +1598,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="1">
@@ -1610,7 +1620,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="1">
@@ -1634,13 +1644,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <f>SUM(B53:B55)</f>
         <v>25.5</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="38">
         <f>SUM(C53:C55)</f>
         <v>11.5</v>
       </c>
@@ -1648,8 +1658,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="36">
+    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="39"/>
+      <c r="C57" s="40">
         <f>C56/B56*100</f>
         <v>45.098039215686278</v>
       </c>
@@ -1696,10 +1707,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="9">
         <f>C61-C62</f>
         <v>4.25</v>
@@ -1787,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF9DB25-C09C-4822-BF56-52A0A12619F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2C986-8F89-4E21-ACE2-DE63753886A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
   <si>
     <t xml:space="preserve">Stationery </t>
   </si>
@@ -96,9 +97,6 @@
     <t>Percent/Day</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Android OS</t>
   </si>
   <si>
@@ -135,31 +133,16 @@
     <t>Kitting FA</t>
   </si>
   <si>
-    <t>Kitting outside</t>
-  </si>
-  <si>
-    <t>Free temp Location</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
     <t xml:space="preserve">3. Total fuction Develop FOSS </t>
   </si>
   <si>
-    <t>OLD devices</t>
-  </si>
-  <si>
-    <t>New device</t>
-  </si>
-  <si>
     <t>Searching , it takes how long</t>
   </si>
   <si>
     <t>WinCE</t>
-  </si>
-  <si>
-    <t>Total time working (h)</t>
   </si>
   <si>
     <t>Goods Receive</t>
@@ -456,9 +439,6 @@
     <t xml:space="preserve">Other function </t>
   </si>
   <si>
-    <t>Compare time modify 1 function that I did</t>
-  </si>
-  <si>
     <t>(B)Paper/month</t>
   </si>
   <si>
@@ -484,13 +464,28 @@
   </si>
   <si>
     <t>Hai (Inventory )</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Old System</t>
+  </si>
+  <si>
+    <t>New system</t>
+  </si>
+  <si>
+    <t>Free temp loaction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +516,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -573,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,20 +594,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -633,12 +613,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,13 +630,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -689,18 +663,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1126,7 @@
       <c r="B9" s="1">
         <v>490</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="38">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -1168,7 +1149,7 @@
       <c r="B10" s="1">
         <v>652</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="38">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -1214,19 +1195,19 @@
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>125</v>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" t="s">
@@ -1236,13 +1217,13 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="20">
+        <v>125</v>
+      </c>
+      <c r="B17" s="18">
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" t="s">
@@ -1251,14 +1232,14 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="18">
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" t="s">
@@ -1267,30 +1248,30 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="18">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="15">
         <f>SUM(B16:B19)</f>
         <v>50</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <v>10</v>
       </c>
       <c r="D20" s="8"/>
@@ -1305,7 +1286,7 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="3"/>
@@ -1313,7 +1294,7 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="3"/>
@@ -1326,7 +1307,7 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3"/>
@@ -1334,13 +1315,13 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -1348,7 +1329,7 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11">
         <v>55</v>
@@ -1362,7 +1343,7 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11">
         <v>44</v>
@@ -1376,7 +1357,7 @@
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>608</v>
@@ -1389,7 +1370,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>435</v>
@@ -1400,409 +1381,378 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="14" t="s">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C38" s="18">
+        <f>SUM(D38:H38)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C39" s="18">
+        <f>SUM(D39:H39)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C40" s="18">
+        <f>SUM(D40:H40)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9">
+        <f>SUM(B38:B40)</f>
+        <v>25.5</v>
+      </c>
+      <c r="C41" s="35">
+        <f>SUM(C38:C40)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37">
+        <f>C41/B41*100</f>
+        <v>45.098039215686278</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="16">
-        <f>8.5*C39</f>
+      <c r="B45" s="14">
+        <f>8.5*C45</f>
         <v>3.8250000000000002</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C45" s="13">
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="16">
-        <f>8.5*C40</f>
+      <c r="B46" s="14">
+        <f>8.5*C46</f>
         <v>4.6750000000000007</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C46" s="13">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="14" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="16">
-        <f>8.5*C43</f>
+      <c r="B49" s="14">
+        <f>8.5*C49</f>
         <v>2.9749999999999996</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C49" s="13">
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="16">
-        <f>8.5*C44</f>
+      <c r="B50" s="14">
+        <f>8.5*C50</f>
         <v>5.5250000000000004</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C50" s="13">
         <v>0.65</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="19">
-        <f>B39-B43</f>
+      <c r="B54" s="17">
+        <f>B45-B49</f>
         <v>0.85000000000000053</v>
       </c>
-      <c r="C48" s="18">
-        <f>C39-C43</f>
+      <c r="C54" s="16">
+        <f>C45-C49</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E54" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="17">
+        <f>B50-B46</f>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="C55" s="16">
+        <f>C50-C46</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="19">
-        <f>B44-B40</f>
-        <v>0.84999999999999964</v>
-      </c>
-      <c r="C49" s="18">
-        <f>C44-C40</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="B60" s="40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="29" t="s">
+      <c r="C60" s="40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="35" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="39">
+        <v>12</v>
+      </c>
+      <c r="C61" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="39">
+        <v>3</v>
+      </c>
+      <c r="C62" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="39">
+        <v>16</v>
+      </c>
+      <c r="C63" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="39">
+        <v>8</v>
+      </c>
+      <c r="C64" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C53" s="20">
-        <f>SUM(D53:H53)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D53" s="20">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="20">
-        <v>1</v>
-      </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C54" s="20">
-        <f>SUM(D54:H54)</f>
-        <v>3.5</v>
-      </c>
-      <c r="D54" s="20">
-        <v>1</v>
-      </c>
-      <c r="E54" s="20">
-        <v>2</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C55" s="20">
-        <f>SUM(D55:H55)</f>
-        <v>3.5</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="20">
-        <v>1</v>
-      </c>
-      <c r="G55" s="20">
-        <v>1</v>
-      </c>
-      <c r="H55" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9">
-        <f>SUM(B53:B55)</f>
-        <v>25.5</v>
-      </c>
-      <c r="C56" s="38">
-        <f>SUM(C53:C55)</f>
-        <v>11.5</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40">
-        <f>C56/B56*100</f>
-        <v>45.098039215686278</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="1">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C62" s="1">
-        <f>C61-B49*5</f>
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="9">
-        <f>C61-C62</f>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="B65" s="39">
+        <v>7</v>
+      </c>
+      <c r="C65" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="12">
-        <v>12</v>
-      </c>
-      <c r="C68" s="12">
-        <v>3</v>
-      </c>
-      <c r="D68" s="12">
-        <v>16</v>
-      </c>
-      <c r="E68" s="12">
-        <v>8</v>
-      </c>
-      <c r="F68" s="12">
-        <v>7</v>
-      </c>
-      <c r="G68" s="12">
+      <c r="B66" s="39">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="12">
-        <v>9</v>
-      </c>
-      <c r="C69" s="12">
-        <v>2</v>
-      </c>
-      <c r="D69" s="12">
-        <v>9</v>
-      </c>
-      <c r="E69" s="12">
+      <c r="C66" s="39">
         <v>4</v>
       </c>
-      <c r="F69" s="12">
-        <v>4</v>
-      </c>
-      <c r="G69" s="12">
-        <v>4</v>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="39">
+        <f>SUM(B61:B66)</f>
+        <v>65</v>
+      </c>
+      <c r="C67" s="39">
+        <f>SUM(C61:C66)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A63:B63"/>
-  </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.16" bottom="0.34" header="0.3" footer="0.16"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,733 +1764,733 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>25</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>29</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>31</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>33</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>34</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>35</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>36</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>37</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>38</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>39</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>41</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>42</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>43</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>44</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>45</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>46</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>47</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="B51" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>49</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>50</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>51</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>52</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>53</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B57" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>55</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>56</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>57</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>58</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>59</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>4</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>6</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="B63" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>61</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>8</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>10</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>11</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>14</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="B65" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>16</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="B66" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>64</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>65</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>18</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>19</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>20</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>21</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>22</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>23</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>24</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>25</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>26</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>27</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>28</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>29</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>30</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>31</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>33</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>34</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>35</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>36</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>37</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>38</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>39</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>41</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>42</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>43</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>44</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>45</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>46</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>47</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>48</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>49</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>50</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>51</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>52</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <v>53</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>54</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
-        <v>55</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>56</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>57</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>58</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>59</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
-        <v>60</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>61</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
-        <v>62</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
-        <v>63</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="20">
-        <v>64</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
-        <v>65</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2C986-8F89-4E21-ACE2-DE63753886A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +67,6 @@
   </si>
   <si>
     <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Total working day</t>
   </si>
   <si>
     <t>Normal support</t>
@@ -477,11 +473,14 @@
   <si>
     <t>Free temp loaction</t>
   </si>
+  <si>
+    <t>Total working time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -996,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1019,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,7 +1194,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
@@ -1204,10 +1203,10 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" t="s">
@@ -1217,7 +1216,7 @@
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="18">
         <v>20</v>
@@ -1233,7 +1232,7 @@
     </row>
     <row r="18" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="18">
         <v>10</v>
@@ -1249,7 +1248,7 @@
     </row>
     <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="18">
         <v>20</v>
@@ -1259,13 +1258,13 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="15">
         <f>SUM(B16:B19)</f>
@@ -1286,7 +1285,7 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="3"/>
@@ -1294,7 +1293,7 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="3"/>
@@ -1307,7 +1306,7 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="3"/>
@@ -1315,13 +1314,13 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -1329,7 +1328,7 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11">
         <v>55</v>
@@ -1343,7 +1342,7 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11">
         <v>44</v>
@@ -1357,7 +1356,7 @@
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11">
         <v>608</v>
@@ -1370,7 +1369,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11">
         <v>435</v>
@@ -1383,15 +1382,15 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1400,36 +1399,36 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="H37" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1">
         <v>8.5</v>
@@ -1454,7 +1453,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1">
         <v>8.5</v>
@@ -1476,7 +1475,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1">
         <v>8.5</v>
@@ -1529,18 +1528,18 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="14">
         <f>8.5*C45</f>
@@ -1552,7 +1551,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="14">
         <f>8.5*C46</f>
@@ -1569,18 +1568,18 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="14">
         <f>8.5*C49</f>
@@ -1592,7 +1591,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="14">
         <f>8.5*C50</f>
@@ -1605,18 +1604,18 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" s="17">
         <f>B45-B49</f>
@@ -1627,12 +1626,12 @@
         <v>0.10000000000000003</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="17">
         <f>B50-B46</f>
@@ -1643,28 +1642,28 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="C60" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="39">
         <v>12</v>
@@ -1675,7 +1674,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="39">
         <v>3</v>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="39">
         <v>16</v>
@@ -1697,7 +1696,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="39">
         <v>8</v>
@@ -1708,7 +1707,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" s="39">
         <v>7</v>
@@ -1719,7 +1718,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="39">
         <v>19</v>
@@ -1730,7 +1729,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="39">
         <f>SUM(B61:B66)</f>
@@ -1748,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1764,18 +1763,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1783,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1794,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1805,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1816,10 +1815,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1827,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1838,10 +1837,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1849,10 +1848,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1860,10 +1859,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1871,10 +1870,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1882,10 +1881,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1893,10 +1892,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1904,10 +1903,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1915,10 +1914,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1926,10 +1925,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1937,10 +1936,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1948,10 +1947,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1959,10 +1958,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1970,10 +1969,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1981,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1992,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2003,10 +2002,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2014,10 +2013,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2025,10 +2024,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2036,10 +2035,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2047,10 +2046,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2058,10 +2057,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,10 +2068,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2080,10 +2079,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,10 +2090,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2102,10 +2101,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,10 +2112,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2123,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2135,10 +2134,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2146,10 +2145,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2157,10 +2156,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2168,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2179,10 +2178,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2190,10 +2189,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2201,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,10 +2211,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2223,10 +2222,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2234,10 +2233,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2245,10 +2244,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2256,10 +2255,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2267,10 +2266,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2278,10 +2277,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2289,10 +2288,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2300,10 +2299,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2311,10 +2310,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2322,10 +2321,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2333,10 +2332,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2344,10 +2343,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2355,10 +2354,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2366,10 +2365,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2377,10 +2376,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2388,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2399,10 +2398,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2410,10 +2409,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2421,10 +2420,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2432,10 +2431,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2443,10 +2442,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2454,10 +2453,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2465,10 +2464,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2476,10 +2475,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2487,10 +2486,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4040C0-873B-4C65-89DE-58DE249D64C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -480,7 +481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -995,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,22 +1381,18 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="27" t="s">
@@ -1625,7 +1622,7 @@
         <f>C45-C49</f>
         <v>0.10000000000000003</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1641,7 +1638,7 @@
         <f>C50-C46</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1747,7 +1744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Logic_Explanation_new.xlsx
+++ b/Logic_Explanation_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4040C0-873B-4C65-89DE-58DE249D64C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2ACD59-A308-4CEB-855A-9132661FC296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
   <si>
     <t xml:space="preserve">Stationery </t>
   </si>
@@ -476,6 +477,18 @@
   </si>
   <si>
     <t>Total working time</t>
+  </si>
+  <si>
+    <t>Borrow Equipment</t>
+  </si>
+  <si>
+    <t>Time inventory</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
   </si>
 </sst>
 </file>
@@ -554,12 +567,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -598,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,6 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,12 +1038,12 @@
     <col min="11" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1085,25 @@
         <f>E4*12</f>
         <v>294</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>490</v>
+      </c>
+      <c r="K4" s="1">
+        <f>3/60*J4</f>
+        <v>24.5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="M4" s="4">
+        <f>1/60*J4</f>
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1088,8 +1125,25 @@
         <f>E5*12</f>
         <v>391.20000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>608</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K6" si="0">3/60*J5</f>
+        <v>30.400000000000002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M6" si="1">1/60*J5</f>
+        <v>10.133333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E6" s="3">
         <f>SUM(E4:E5)</f>
         <v>57.1</v>
@@ -1098,8 +1152,26 @@
         <f>SUM(F4:F5)</f>
         <v>685.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L6">
+        <f>1/60*J6</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,11 +1210,11 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F10" si="0">E9*12</f>
+        <f t="shared" ref="F9:F10" si="2">E9*12</f>
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1233,18 @@
         <v>10.866666666666667</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E11" s="3">
         <f>SUM(E9:E10)</f>
         <v>19.033333333333331</v>
@@ -1174,8 +1253,28 @@
         <f>SUM(F9:F10)</f>
         <v>228.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="42">
+        <v>55</v>
+      </c>
+      <c r="K11" s="42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="42">
+        <v>44</v>
+      </c>
+      <c r="K12" s="42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1187,13 +1286,32 @@
         <f>F6-F11</f>
         <v>456.80000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="42">
+        <v>608</v>
+      </c>
+      <c r="K13" s="42">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="42">
+        <v>435</v>
+      </c>
+      <c r="K14" s="42">
+        <f>3/60*20*435</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -1201,7 +1319,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="18" t="s">
         <v>116</v>
@@ -1214,8 +1332,14 @@
         <v>9</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>124</v>
       </c>
@@ -1230,8 +1354,17 @@
         <v>11</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>24.5</v>
+      </c>
+      <c r="K17">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>122</v>
       </c>
@@ -1246,8 +1379,17 @@
         <v>10</v>
       </c>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>30.400000000000002</v>
+      </c>
+      <c r="K18">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>123</v>
       </c>
@@ -1262,8 +1404,17 @@
         <v>36</v>
       </c>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>106</v>
       </c>
@@ -1280,32 +1431,65 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>24.5</v>
+      </c>
+      <c r="K22">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>30.400000000000002</v>
+      </c>
+      <c r="K23">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1497,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -1327,7 +1511,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1525,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1355,7 +1539,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1368,7 +1552,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
